--- a/test_data.csv.xlsx
+++ b/test_data.csv.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\CCTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBA44B-ABE4-4EE8-A4FB-8D6E8F39B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BADB8-F979-408C-BA30-3BEF576AE415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{28433788-5135-4757-8D13-BB539D02856B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,46 +36,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ID/Tag</t>
-  </si>
-  <si>
-    <t>Robots</t>
-  </si>
-  <si>
-    <t>Config</t>
-  </si>
-  <si>
-    <t>TestForCreatingTodoList</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>SingleTaskScenario#TestForCreatingTodoList</t>
   </si>
   <si>
-    <t>AnotherTest</t>
-  </si>
-  <si>
     <t>SingleTaskScenario#AnotherTest</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>robots</t>
+  </si>
+  <si>
+    <t>propertiesTestSingleTask.createTask</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>os:win;chrome:80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -118,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -455,52 +446,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA658D1-6A6E-4D0E-A85D-BE2004A5B0F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71263884-DEB6-4505-B67C-97FFEFEEFF28}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
